--- a/GenericScenarioEvaluation/Reviewed Scenarios/ST/Paper dyes.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/ST/Paper dyes.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="298" documentId="8_{85225EFD-6036-4666-9CB6-CEB75930D10B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD3DBFB4-4B59-4FBA-BB91-2D45FEF0A7F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -1585,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A8DA8E-F055-4EAE-98B3-B13E29507A62}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,45 +4153,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F11D2A2FBBEED40A750386529AFE883" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7fcd2fa88e0328b3b0dd9ef335fe48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="241d41d8-5778-4e30-b44e-dee891c66b79" xmlns:ns6="af43f131-d884-42a1-ba66-3c1404ec48fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a2a87f8101accce6a0d0ea40fd00900" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4624,34 +4599,62 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08CCCF29-0344-469F-A9A8-080393186630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4674,18 +4677,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>